--- a/templates/dataplant/MIAPPE/MIAPPE_-_Growth_facility.xlsx
+++ b/templates/dataplant/MIAPPE/MIAPPE_-_Growth_facility.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="148">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -245,123 +245,120 @@
     <t>Parameter [Type of lamps used]</t>
   </si>
   <si>
+    <t>Term Source REF (MIAPPE:0104)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0104)</t>
+  </si>
+  <si>
+    <t>Parameter [R/FR ratio]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unit        </t>
   </si>
   <si>
-    <t>Term Source REF (MIAPPE:0104)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0104)</t>
-  </si>
-  <si>
-    <t>Parameter [R/FR ratio]</t>
+    <t>Term Source REF (MIAPPE:0105)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0105)</t>
+  </si>
+  <si>
+    <t>Parameter [Daily UV-A radiation]</t>
   </si>
   <si>
     <t xml:space="preserve">Unit         </t>
   </si>
   <si>
-    <t>Term Source REF (MIAPPE:0105)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0105)</t>
-  </si>
-  <si>
-    <t>Parameter [Daily UV-A radiation]</t>
+    <t>Term Source REF (MIAPPE:0106)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0106)</t>
+  </si>
+  <si>
+    <t>Parameter [Daily UV-B radiation]</t>
   </si>
   <si>
     <t xml:space="preserve">Unit          </t>
   </si>
   <si>
-    <t>Term Source REF (MIAPPE:0106)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0106)</t>
-  </si>
-  <si>
-    <t>Parameter [Daily UV-B radiation]</t>
+    <t>Term Source REF (MIAPPE:0107)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0107)</t>
+  </si>
+  <si>
+    <t>Parameter [Total daily irradiance]</t>
   </si>
   <si>
     <t xml:space="preserve">Unit           </t>
   </si>
   <si>
-    <t>Term Source REF (MIAPPE:0107)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0107)</t>
-  </si>
-  <si>
-    <t>Parameter [Total daily irradiance]</t>
+    <t>Term Source REF (MIAPPE:0108)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0108)</t>
+  </si>
+  <si>
+    <t>Parameter [Atmospheric CO2 concentration]</t>
+  </si>
+  <si>
+    <t>Term Source REF (MIAPPE:0109)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0109)</t>
+  </si>
+  <si>
+    <t>Parameter [Average CO2 during the light and dark periods]</t>
+  </si>
+  <si>
+    <t>Term Source REF (MIAPPE:0110)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0110)</t>
+  </si>
+  <si>
+    <t>Parameter [Vapour pressure deficit]</t>
   </si>
   <si>
     <t xml:space="preserve">Unit            </t>
   </si>
   <si>
-    <t>Term Source REF (MIAPPE:0108)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0108)</t>
-  </si>
-  <si>
-    <t>Parameter [Atmospheric CO2 concentration]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MIAPPE:0109)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0109)</t>
-  </si>
-  <si>
-    <t>Parameter [Average CO2 during the light and dark periods]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MIAPPE:0110)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0110)</t>
-  </si>
-  <si>
-    <t>Parameter [Vapour pressure deficit]</t>
+    <t>Term Source REF (MIAPPE:0111)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0111)</t>
+  </si>
+  <si>
+    <t>Parameter [Average relative humidity during the light period]</t>
   </si>
   <si>
     <t xml:space="preserve">Unit             </t>
   </si>
   <si>
-    <t>Term Source REF (MIAPPE:0111)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0111)</t>
-  </si>
-  <si>
-    <t>Parameter [Average relative humidity during the light period]</t>
+    <t>Term Source REF (MIAPPE:0112)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0112)</t>
+  </si>
+  <si>
+    <t>Parameter [Average VPDair during the dark period.]</t>
   </si>
   <si>
     <t xml:space="preserve">Unit              </t>
   </si>
   <si>
-    <t>Term Source REF (MIAPPE:0112)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0112)</t>
-  </si>
-  <si>
-    <t>Parameter [Average VPDair during the dark period.]</t>
+    <t>Term Source REF (MIAPPE:0113)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0113)</t>
+  </si>
+  <si>
+    <t>Parameter [Average relative humidity during the dark period]</t>
   </si>
   <si>
     <t xml:space="preserve">Unit               </t>
   </si>
   <si>
-    <t>Term Source REF (MIAPPE:0113)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0113)</t>
-  </si>
-  <si>
-    <t>Parameter [Average relative humidity during the dark period]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit                </t>
-  </si>
-  <si>
     <t>Term Source REF (MIAPPE:0114)</t>
   </si>
   <si>
@@ -374,115 +371,91 @@
     <t/>
   </si>
   <si>
-    <t>List of hourly air temperature throughout the experiment.</t>
-  </si>
-  <si>
-    <t>List of hourly organ temperatures throughout the experiment</t>
-  </si>
-  <si>
-    <t>Difference between the maximum air temperature recorded and the minimum.</t>
-  </si>
-  <si>
-    <t>List of hourly Photosynthetic photon flux density (PPFD) throughout the experiment.</t>
-  </si>
-  <si>
-    <t>Average length of the light period in h.</t>
-  </si>
-  <si>
-    <t>Intensity of total light</t>
-  </si>
-  <si>
-    <t>Range in peak light intensity for the whole experiment.</t>
-  </si>
-  <si>
-    <t>Fraction of outside light intercepted by growth facility components and surrounding structures.</t>
-  </si>
-  <si>
-    <t>Nature of the light source for controlled environments. XEO: 00137</t>
-  </si>
-  <si>
-    <t>Red light to far red light ratio. XEO:00036</t>
-  </si>
-  <si>
-    <t>Intensity of UVA radiation (320-400 nm); XEO:00037</t>
-  </si>
-  <si>
-    <t>Intensity of UVB radiation (290-320 nm); XEO:00038</t>
-  </si>
-  <si>
-    <t>Intensity of total light (XEO:00034) averaged over the experiment.</t>
-  </si>
-  <si>
-    <t>Denotes whether the atmospheric CO2 concentrations were controlled during the experiment.</t>
-  </si>
-  <si>
-    <t>Concentration of CO2 in the air during the light and dark periods (XEO:00023)</t>
-  </si>
-  <si>
-    <t>Vector of hourly VPD throughout the experiment .The Vapour Pressure Deficit in the air defines the difference between the maximal amount of water in the air minus the actual amount during the light period in kPa (XEO:00021)</t>
-  </si>
-  <si>
-    <t>The relative humidity describes the amount of water vapor in the air, generally expressed as the percentage of the maximum water vapor during the light period (XEO:00020)</t>
-  </si>
-  <si>
-    <t>The Vapour Pressure Deficit in the air defines the difference between the maximal amount of water in the air minus the actual amount during the light period in kPa (XEO:00021)</t>
-  </si>
-  <si>
-    <t>The relative humidity describes the amount of water vapor in the air, generally expressed as the percentage of the maximum water vapor during the dark period (XEO:00020)</t>
-  </si>
-  <si>
-    <t>22 °C</t>
-  </si>
-  <si>
-    <t>18 °C</t>
-  </si>
-  <si>
-    <t>0.75 °C</t>
-  </si>
-  <si>
-    <t>PPFD: 89061 mol m-2 sd-1;</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>degree celsius</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000027</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>2000 µmol m-2s-1</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>[μmol m–2 s–1]</t>
-  </si>
-  <si>
-    <t>Number between 0 and 1</t>
-  </si>
-  <si>
-    <t>fluorescent tubes; high intensity discharge (HID) lamps; light emitting diodes (LED)</t>
-  </si>
-  <si>
-    <t>[mol mol–1]</t>
-  </si>
-  <si>
-    <t>[W m-2]</t>
-  </si>
-  <si>
-    <t>controlled; uncontrolled</t>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000032</t>
+  </si>
+  <si>
+    <t>μmol m–2 s–1</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>fluorescent tubes</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C49923</t>
+  </si>
+  <si>
+    <t>Mole per Mole</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70455</t>
+  </si>
+  <si>
+    <t>watt per square meter</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000155</t>
+  </si>
+  <si>
+    <t>controlled</t>
   </si>
   <si>
     <t>light period: 390 mLL-1; dark period: 450 mLL-1</t>
   </si>
   <si>
-    <t>2 kPa</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>2.7 kPa</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>Numeric</t>
-  </si>
-  <si>
-    <t>Text</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Kilopascal</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67284</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000187</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
 </sst>
 </file>
@@ -538,8 +511,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:BX4" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:BX4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:BW2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:BW2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -615,9 +588,8 @@
     <filterColumn colId="72" hiddenButton="1"/>
     <filterColumn colId="73" hiddenButton="1"/>
     <filterColumn colId="74" hiddenButton="1"/>
-    <filterColumn colId="75" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="76">
+  <tableColumns count="75">
     <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Parameter [Air temperature]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Unit" totalsRowFunction="none"/>
@@ -652,48 +624,47 @@
     <tableColumn id="32" name="Term Source REF (MIAPPE:0103)" totalsRowFunction="none"/>
     <tableColumn id="33" name="Term Accession Number (MIAPPE:0103)" totalsRowFunction="none"/>
     <tableColumn id="34" name="Parameter [Type of lamps used]" totalsRowFunction="none"/>
-    <tableColumn id="35" name="Unit        " totalsRowFunction="none"/>
-    <tableColumn id="36" name="Term Source REF (MIAPPE:0104)" totalsRowFunction="none"/>
-    <tableColumn id="37" name="Term Accession Number (MIAPPE:0104)" totalsRowFunction="none"/>
-    <tableColumn id="38" name="Parameter [R/FR ratio]" totalsRowFunction="none"/>
-    <tableColumn id="39" name="Unit         " totalsRowFunction="none"/>
-    <tableColumn id="40" name="Term Source REF (MIAPPE:0105)" totalsRowFunction="none"/>
-    <tableColumn id="41" name="Term Accession Number (MIAPPE:0105)" totalsRowFunction="none"/>
-    <tableColumn id="42" name="Parameter [Daily UV-A radiation]" totalsRowFunction="none"/>
-    <tableColumn id="43" name="Unit          " totalsRowFunction="none"/>
-    <tableColumn id="44" name="Term Source REF (MIAPPE:0106)" totalsRowFunction="none"/>
-    <tableColumn id="45" name="Term Accession Number (MIAPPE:0106)" totalsRowFunction="none"/>
-    <tableColumn id="46" name="Parameter [Daily UV-B radiation]" totalsRowFunction="none"/>
-    <tableColumn id="47" name="Unit           " totalsRowFunction="none"/>
-    <tableColumn id="48" name="Term Source REF (MIAPPE:0107)" totalsRowFunction="none"/>
-    <tableColumn id="49" name="Term Accession Number (MIAPPE:0107)" totalsRowFunction="none"/>
-    <tableColumn id="50" name="Parameter [Total daily irradiance]" totalsRowFunction="none"/>
-    <tableColumn id="51" name="Unit            " totalsRowFunction="none"/>
-    <tableColumn id="52" name="Term Source REF (MIAPPE:0108)" totalsRowFunction="none"/>
-    <tableColumn id="53" name="Term Accession Number (MIAPPE:0108)" totalsRowFunction="none"/>
-    <tableColumn id="54" name="Parameter [Atmospheric CO2 concentration]" totalsRowFunction="none"/>
-    <tableColumn id="55" name="Term Source REF (MIAPPE:0109)" totalsRowFunction="none"/>
-    <tableColumn id="56" name="Term Accession Number (MIAPPE:0109)" totalsRowFunction="none"/>
-    <tableColumn id="57" name="Parameter [Average CO2 during the light and dark periods]" totalsRowFunction="none"/>
-    <tableColumn id="58" name="Term Source REF (MIAPPE:0110)" totalsRowFunction="none"/>
-    <tableColumn id="59" name="Term Accession Number (MIAPPE:0110)" totalsRowFunction="none"/>
-    <tableColumn id="60" name="Parameter [Vapour pressure deficit]" totalsRowFunction="none"/>
-    <tableColumn id="61" name="Unit             " totalsRowFunction="none"/>
-    <tableColumn id="62" name="Term Source REF (MIAPPE:0111)" totalsRowFunction="none"/>
-    <tableColumn id="63" name="Term Accession Number (MIAPPE:0111)" totalsRowFunction="none"/>
-    <tableColumn id="64" name="Parameter [Average relative humidity during the light period]" totalsRowFunction="none"/>
-    <tableColumn id="65" name="Unit              " totalsRowFunction="none"/>
-    <tableColumn id="66" name="Term Source REF (MIAPPE:0112)" totalsRowFunction="none"/>
-    <tableColumn id="67" name="Term Accession Number (MIAPPE:0112)" totalsRowFunction="none"/>
-    <tableColumn id="68" name="Parameter [Average VPDair during the dark period.]" totalsRowFunction="none"/>
-    <tableColumn id="69" name="Unit               " totalsRowFunction="none"/>
-    <tableColumn id="70" name="Term Source REF (MIAPPE:0113)" totalsRowFunction="none"/>
-    <tableColumn id="71" name="Term Accession Number (MIAPPE:0113)" totalsRowFunction="none"/>
-    <tableColumn id="72" name="Parameter [Average relative humidity during the dark period]" totalsRowFunction="none"/>
-    <tableColumn id="73" name="Unit                " totalsRowFunction="none"/>
-    <tableColumn id="74" name="Term Source REF (MIAPPE:0114)" totalsRowFunction="none"/>
-    <tableColumn id="75" name="Term Accession Number (MIAPPE:0114)" totalsRowFunction="none"/>
-    <tableColumn id="76" name="Output [Sample Name]" totalsRowFunction="none"/>
+    <tableColumn id="35" name="Term Source REF (MIAPPE:0104)" totalsRowFunction="none"/>
+    <tableColumn id="36" name="Term Accession Number (MIAPPE:0104)" totalsRowFunction="none"/>
+    <tableColumn id="37" name="Parameter [R/FR ratio]" totalsRowFunction="none"/>
+    <tableColumn id="38" name="Unit        " totalsRowFunction="none"/>
+    <tableColumn id="39" name="Term Source REF (MIAPPE:0105)" totalsRowFunction="none"/>
+    <tableColumn id="40" name="Term Accession Number (MIAPPE:0105)" totalsRowFunction="none"/>
+    <tableColumn id="41" name="Parameter [Daily UV-A radiation]" totalsRowFunction="none"/>
+    <tableColumn id="42" name="Unit         " totalsRowFunction="none"/>
+    <tableColumn id="43" name="Term Source REF (MIAPPE:0106)" totalsRowFunction="none"/>
+    <tableColumn id="44" name="Term Accession Number (MIAPPE:0106)" totalsRowFunction="none"/>
+    <tableColumn id="45" name="Parameter [Daily UV-B radiation]" totalsRowFunction="none"/>
+    <tableColumn id="46" name="Unit          " totalsRowFunction="none"/>
+    <tableColumn id="47" name="Term Source REF (MIAPPE:0107)" totalsRowFunction="none"/>
+    <tableColumn id="48" name="Term Accession Number (MIAPPE:0107)" totalsRowFunction="none"/>
+    <tableColumn id="49" name="Parameter [Total daily irradiance]" totalsRowFunction="none"/>
+    <tableColumn id="50" name="Unit           " totalsRowFunction="none"/>
+    <tableColumn id="51" name="Term Source REF (MIAPPE:0108)" totalsRowFunction="none"/>
+    <tableColumn id="52" name="Term Accession Number (MIAPPE:0108)" totalsRowFunction="none"/>
+    <tableColumn id="53" name="Parameter [Atmospheric CO2 concentration]" totalsRowFunction="none"/>
+    <tableColumn id="54" name="Term Source REF (MIAPPE:0109)" totalsRowFunction="none"/>
+    <tableColumn id="55" name="Term Accession Number (MIAPPE:0109)" totalsRowFunction="none"/>
+    <tableColumn id="56" name="Parameter [Average CO2 during the light and dark periods]" totalsRowFunction="none"/>
+    <tableColumn id="57" name="Term Source REF (MIAPPE:0110)" totalsRowFunction="none"/>
+    <tableColumn id="58" name="Term Accession Number (MIAPPE:0110)" totalsRowFunction="none"/>
+    <tableColumn id="59" name="Parameter [Vapour pressure deficit]" totalsRowFunction="none"/>
+    <tableColumn id="60" name="Unit            " totalsRowFunction="none"/>
+    <tableColumn id="61" name="Term Source REF (MIAPPE:0111)" totalsRowFunction="none"/>
+    <tableColumn id="62" name="Term Accession Number (MIAPPE:0111)" totalsRowFunction="none"/>
+    <tableColumn id="63" name="Parameter [Average relative humidity during the light period]" totalsRowFunction="none"/>
+    <tableColumn id="64" name="Unit             " totalsRowFunction="none"/>
+    <tableColumn id="65" name="Term Source REF (MIAPPE:0112)" totalsRowFunction="none"/>
+    <tableColumn id="66" name="Term Accession Number (MIAPPE:0112)" totalsRowFunction="none"/>
+    <tableColumn id="67" name="Parameter [Average VPDair during the dark period.]" totalsRowFunction="none"/>
+    <tableColumn id="68" name="Unit              " totalsRowFunction="none"/>
+    <tableColumn id="69" name="Term Source REF (MIAPPE:0113)" totalsRowFunction="none"/>
+    <tableColumn id="70" name="Term Accession Number (MIAPPE:0113)" totalsRowFunction="none"/>
+    <tableColumn id="71" name="Parameter [Average relative humidity during the dark period]" totalsRowFunction="none"/>
+    <tableColumn id="72" name="Unit               " totalsRowFunction="none"/>
+    <tableColumn id="73" name="Term Source REF (MIAPPE:0114)" totalsRowFunction="none"/>
+    <tableColumn id="74" name="Term Accession Number (MIAPPE:0114)" totalsRowFunction="none"/>
+    <tableColumn id="75" name="Output [Sample Name]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1196,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX4"/>
+  <dimension ref="A1:BW2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -1425,698 +1396,232 @@
       <c r="BW1" t="s">
         <v>117</v>
       </c>
-      <c r="BX1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
         <v>119</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>120</v>
       </c>
-      <c r="C2" t="s">
-        <v>119</v>
-      </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" t="s">
         <v>121</v>
       </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>119</v>
-      </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" t="s">
         <v>122</v>
       </c>
-      <c r="K2" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M2" t="s">
-        <v>119</v>
-      </c>
       <c r="N2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="T2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="U2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="V2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="W2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AA2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AE2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AI2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="AJ2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="AK2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AL2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AM2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="AN2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="AO2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AP2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AQ2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AR2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="AS2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AT2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AU2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AV2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="AW2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AX2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI2" t="s">
         <v>132</v>
       </c>
-      <c r="AY2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>119</v>
-      </c>
       <c r="BJ2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="BK2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="BL2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="BM2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BN2" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="BO2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="BP2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BQ2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="BR2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="BS2" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="BT2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="BU2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BV2" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="BW2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" t="s">
-        <v>119</v>
-      </c>
-      <c r="M3" t="s">
-        <v>119</v>
-      </c>
-      <c r="N3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O3" t="s">
-        <v>119</v>
-      </c>
-      <c r="P3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>119</v>
-      </c>
-      <c r="R3" t="s">
-        <v>143</v>
-      </c>
-      <c r="S3" t="s">
-        <v>119</v>
-      </c>
-      <c r="T3" t="s">
-        <v>119</v>
-      </c>
-      <c r="U3" t="s">
-        <v>119</v>
-      </c>
-      <c r="V3" t="s">
-        <v>144</v>
-      </c>
-      <c r="W3" t="s">
-        <v>119</v>
-      </c>
-      <c r="X3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>149</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>150</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>151</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>152</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>154</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M4" t="s">
-        <v>119</v>
-      </c>
-      <c r="N4" t="s">
-        <v>156</v>
-      </c>
-      <c r="O4" t="s">
-        <v>119</v>
-      </c>
-      <c r="P4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>119</v>
-      </c>
-      <c r="R4" t="s">
-        <v>155</v>
-      </c>
-      <c r="S4" t="s">
-        <v>119</v>
-      </c>
-      <c r="T4" t="s">
-        <v>119</v>
-      </c>
-      <c r="U4" t="s">
-        <v>119</v>
-      </c>
-      <c r="V4" t="s">
-        <v>155</v>
-      </c>
-      <c r="W4" t="s">
-        <v>119</v>
-      </c>
-      <c r="X4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>155</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>156</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>155</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>155</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>155</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>155</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/MIAPPE/MIAPPE_-_Growth_facility.xlsx
+++ b/templates/dataplant/MIAPPE/MIAPPE_-_Growth_facility.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Description</t>
@@ -170,7 +170,7 @@
     <t>Term Accession Number (MIAPPE:0097)</t>
   </si>
   <si>
-    <t>Parameter [Change over the course of experiment]</t>
+    <t>Parameter [Change in air temperature over the course of experiment]</t>
   </si>
   <si>
     <t xml:space="preserve">Unit  </t>
@@ -341,7 +341,7 @@
     <t>Term Accession Number (MIAPPE:0112)</t>
   </si>
   <si>
-    <t>Parameter [Average VPDair during the dark period.]</t>
+    <t>Parameter [Average VPDair during the dark period]</t>
   </si>
   <si>
     <t xml:space="preserve">Unit              </t>
@@ -380,7 +380,7 @@
     <t>UO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000027</t>
+    <t>https://bioregistry.io/UO:0000027</t>
   </si>
   <si>
     <t>18</t>
@@ -398,7 +398,7 @@
     <t>hour</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000032</t>
+    <t>https://bioregistry.io/UO:0000032</t>
   </si>
   <si>
     <t>μmol m–2 s–1</t>
@@ -413,19 +413,19 @@
     <t>NCIT</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C49923</t>
+    <t>https://bioregistry.io/NCIT:C49923</t>
   </si>
   <si>
     <t>Mole per Mole</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C70455</t>
+    <t>https://bioregistry.io/NCIT:C70455</t>
   </si>
   <si>
     <t>watt per square meter</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000155</t>
+    <t>https://bioregistry.io/UO:0000155</t>
   </si>
   <si>
     <t>controlled</t>
@@ -440,7 +440,7 @@
     <t>Kilopascal</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C67284</t>
+    <t>https://bioregistry.io/NCIT:C67284</t>
   </si>
   <si>
     <t>30</t>
@@ -449,7 +449,7 @@
     <t>percent</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000187</t>
+    <t>https://bioregistry.io/UO:0000187</t>
   </si>
   <si>
     <t>2.7</t>
@@ -599,7 +599,7 @@
     <tableColumn id="7" name="Unit " totalsRowFunction="none"/>
     <tableColumn id="8" name="Term Source REF (MIAPPE:0097)" totalsRowFunction="none"/>
     <tableColumn id="9" name="Term Accession Number (MIAPPE:0097)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Parameter [Change over the course of experiment]" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Parameter [Change in air temperature over the course of experiment]" totalsRowFunction="none"/>
     <tableColumn id="11" name="Unit  " totalsRowFunction="none"/>
     <tableColumn id="12" name="Term Source REF (MIAPPE:0098)" totalsRowFunction="none"/>
     <tableColumn id="13" name="Term Accession Number (MIAPPE:0098)" totalsRowFunction="none"/>
@@ -656,7 +656,7 @@
     <tableColumn id="64" name="Unit             " totalsRowFunction="none"/>
     <tableColumn id="65" name="Term Source REF (MIAPPE:0112)" totalsRowFunction="none"/>
     <tableColumn id="66" name="Term Accession Number (MIAPPE:0112)" totalsRowFunction="none"/>
-    <tableColumn id="67" name="Parameter [Average VPDair during the dark period.]" totalsRowFunction="none"/>
+    <tableColumn id="67" name="Parameter [Average VPDair during the dark period]" totalsRowFunction="none"/>
     <tableColumn id="68" name="Unit              " totalsRowFunction="none"/>
     <tableColumn id="69" name="Term Source REF (MIAPPE:0113)" totalsRowFunction="none"/>
     <tableColumn id="70" name="Term Accession Number (MIAPPE:0113)" totalsRowFunction="none"/>
